--- a/02_設計/00_サンプル/シーケンス図.xlsx
+++ b/02_設計/00_サンプル/シーケンス図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="522" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EB1AD12-0B18-4E98-8CF1-F40CB4860D7D}"/>
+  <xr:revisionPtr revIDLastSave="530" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71A6461D-CCA2-496B-B3EC-9347241FDACC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,23 +140,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能ID</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>機能名称</t>
-    <rPh sb="0" eb="2">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>凡例</t>
     <rPh sb="0" eb="2">
       <t>ハンレイ</t>
@@ -178,18 +161,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ログイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>F0-001</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>補足</t>
     <rPh sb="0" eb="2">
       <t>ホソク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S0-001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -629,6 +629,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -650,16 +653,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4968,29 +4968,29 @@
   </sheetPr>
   <dimension ref="A1:AQ44"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A17" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="AK1" sqref="AK1:AQ2"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection sqref="A1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
@@ -5009,7 +5009,7 @@
         <v>0</v>
       </c>
       <c r="AB1" s="26"/>
-      <c r="AC1" s="38"/>
+      <c r="AC1" s="37"/>
       <c r="AD1" s="26"/>
       <c r="AE1" s="26"/>
       <c r="AF1" s="26"/>
@@ -5028,20 +5028,20 @@
       <c r="AQ1" s="27"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="AB2" s="28"/>
-      <c r="AC2" s="39"/>
+      <c r="AC2" s="29"/>
       <c r="AD2" s="28"/>
       <c r="AE2" s="28"/>
       <c r="AF2" s="28"/>
@@ -5076,54 +5076,54 @@
       <c r="AN2" s="28"/>
       <c r="AO2" s="28"/>
       <c r="AP2" s="28"/>
-      <c r="AQ2" s="29"/>
+      <c r="AQ2" s="30"/>
     </row>
     <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36" t="s">
-        <v>24</v>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="38" t="s">
+        <v>20</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="37"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="39"/>
     </row>
     <row r="4" spans="1:43" ht="19.2" thickTop="1" thickBot="1">
       <c r="A4" s="8"/>
@@ -5172,7 +5172,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -5425,7 +5425,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
@@ -7011,34 +7011,34 @@
   <dimension ref="A1:AQ44"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:L3"/>
+      <selection activeCell="M1" sqref="M1:P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
       <c r="M1" s="26" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
       <c r="P1" s="26"/>
       <c r="Q1" s="26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="R1" s="26"/>
       <c r="S1" s="26"/>
@@ -7053,8 +7053,8 @@
         <v>0</v>
       </c>
       <c r="AB1" s="26"/>
-      <c r="AC1" s="38">
-        <v>44364</v>
+      <c r="AC1" s="37">
+        <v>44365</v>
       </c>
       <c r="AD1" s="26"/>
       <c r="AE1" s="26"/>
@@ -7066,7 +7066,7 @@
       </c>
       <c r="AJ1" s="26"/>
       <c r="AK1" s="26" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL1" s="26"/>
       <c r="AM1" s="26"/>
@@ -7076,26 +7076,26 @@
       <c r="AQ1" s="27"/>
     </row>
     <row r="2" spans="1:43">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
       <c r="M2" s="28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N2" s="28"/>
       <c r="O2" s="28"/>
       <c r="P2" s="28"/>
       <c r="Q2" s="28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R2" s="28"/>
       <c r="S2" s="28"/>
@@ -7110,8 +7110,8 @@
         <v>1</v>
       </c>
       <c r="AB2" s="28"/>
-      <c r="AC2" s="39">
-        <v>44364</v>
+      <c r="AC2" s="29">
+        <v>44365</v>
       </c>
       <c r="AD2" s="28"/>
       <c r="AE2" s="28"/>
@@ -7123,61 +7123,61 @@
       </c>
       <c r="AJ2" s="28"/>
       <c r="AK2" s="28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL2" s="28"/>
       <c r="AM2" s="28"/>
       <c r="AN2" s="28"/>
       <c r="AO2" s="28"/>
       <c r="AP2" s="28"/>
-      <c r="AQ2" s="29"/>
+      <c r="AQ2" s="30"/>
     </row>
     <row r="3" spans="1:43" ht="18.600000000000001" thickBot="1">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36" t="s">
-        <v>24</v>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="38" t="s">
+        <v>20</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="36"/>
-      <c r="P3" s="36"/>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
-      <c r="V3" s="36"/>
-      <c r="W3" s="36"/>
-      <c r="X3" s="36"/>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="37"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="38"/>
+      <c r="P3" s="38"/>
+      <c r="Q3" s="38"/>
+      <c r="R3" s="38"/>
+      <c r="S3" s="38"/>
+      <c r="T3" s="38"/>
+      <c r="U3" s="38"/>
+      <c r="V3" s="38"/>
+      <c r="W3" s="38"/>
+      <c r="X3" s="38"/>
+      <c r="Y3" s="38"/>
+      <c r="Z3" s="38"/>
+      <c r="AA3" s="38"/>
+      <c r="AB3" s="38"/>
+      <c r="AC3" s="38"/>
+      <c r="AD3" s="38"/>
+      <c r="AE3" s="38"/>
+      <c r="AF3" s="38"/>
+      <c r="AG3" s="38"/>
+      <c r="AH3" s="38"/>
+      <c r="AI3" s="38"/>
+      <c r="AJ3" s="38"/>
+      <c r="AK3" s="38"/>
+      <c r="AL3" s="38"/>
+      <c r="AM3" s="38"/>
+      <c r="AN3" s="38"/>
+      <c r="AO3" s="38"/>
+      <c r="AP3" s="38"/>
+      <c r="AQ3" s="39"/>
     </row>
     <row r="4" spans="1:43" ht="19.2" thickTop="1" thickBot="1">
       <c r="A4" s="8"/>
@@ -7226,7 +7226,7 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -7479,7 +7479,7 @@
       <c r="Y10" s="10"/>
       <c r="Z10" s="10"/>
       <c r="AA10" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
